--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-06_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-06_end.xlsx
@@ -584,7 +584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Member"]   He kept talking about some "other plan"... What the hell is with that?!
+    <t xml:space="preserve">[name="Reunion Member"]   He kept talking about some 'other plan'... What the hell is with that?!
 </t>
   </si>
   <si>
